--- a/caracteristicas2.0/dropxCARAC.xlsx
+++ b/caracteristicas2.0/dropxCARAC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\felipe\Mis Documentos\IABO_TENIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\IABO_DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB54CC2E-6EAD-405D-ACE0-757DCFBC7076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dato" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,20 @@
     <sheet name="MIN" sheetId="6" r:id="rId5"/>
     <sheet name="MAX" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -530,48 +544,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -902,12 +916,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2264"/>
   <sheetViews>
     <sheetView topLeftCell="A754" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
@@ -52969,14 +52983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1">
@@ -58592,292 +58606,6 @@
       <c r="F216" s="1">
         <f>AVERAGE(dato!G2151:'dato'!G2160)</f>
         <v>21.179199199999996</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <f>AVERAGE(dato!B2161:'dato'!B2170)</f>
-        <v>-2.6316774000000001</v>
-      </c>
-      <c r="B217" s="1">
-        <f>AVERAGE(dato!C2161:'dato'!C2170)</f>
-        <v>-1.3195191999999998</v>
-      </c>
-      <c r="C217" s="1">
-        <f>AVERAGE(dato!D2161:'dato'!D2170)</f>
-        <v>-1.3634999999999842E-2</v>
-      </c>
-      <c r="D217" s="1">
-        <f>AVERAGE(dato!E2161:'dato'!E2170)</f>
-        <v>62.85400400000001</v>
-      </c>
-      <c r="E217" s="1">
-        <f>AVERAGE(dato!F2161:'dato'!F2170)</f>
-        <v>-354.86450180000003</v>
-      </c>
-      <c r="F217" s="1">
-        <f>AVERAGE(dato!G2161:'dato'!G2170)</f>
-        <v>-277.45361330000003</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <f>AVERAGE(dato!B2171:'dato'!B2180)</f>
-        <v>0.78161610000000015</v>
-      </c>
-      <c r="B218" s="1">
-        <f>AVERAGE(dato!C2171:'dato'!C2180)</f>
-        <v>-0.84503169999999983</v>
-      </c>
-      <c r="C218" s="1">
-        <f>AVERAGE(dato!D2171:'dato'!D2180)</f>
-        <v>1.8368531000000001</v>
-      </c>
-      <c r="D218" s="1">
-        <f>AVERAGE(dato!E2171:'dato'!E2180)</f>
-        <v>73.61450210000001</v>
-      </c>
-      <c r="E218" s="1">
-        <f>AVERAGE(dato!F2171:'dato'!F2180)</f>
-        <v>-26.086425800000001</v>
-      </c>
-      <c r="F218" s="1">
-        <f>AVERAGE(dato!G2171:'dato'!G2180)</f>
-        <v>-51.647949200000006</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <f>AVERAGE(dato!B2181:'dato'!B2190)</f>
-        <v>0.5440064</v>
-      </c>
-      <c r="B219" s="1">
-        <f>AVERAGE(dato!C2181:'dato'!C2190)</f>
-        <v>-0.65345459999999989</v>
-      </c>
-      <c r="C219" s="1">
-        <f>AVERAGE(dato!D2181:'dato'!D2190)</f>
-        <v>0.66287840000000009</v>
-      </c>
-      <c r="D219" s="1">
-        <f>AVERAGE(dato!E2181:'dato'!E2190)</f>
-        <v>2.7404786999999979</v>
-      </c>
-      <c r="E219" s="1">
-        <f>AVERAGE(dato!F2181:'dato'!F2190)</f>
-        <v>26.501464899999995</v>
-      </c>
-      <c r="F219" s="1">
-        <f>AVERAGE(dato!G2181:'dato'!G2190)</f>
-        <v>7.2937012999999995</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <f>AVERAGE(dato!B2191:'dato'!B2200)</f>
-        <v>0.63868409999999998</v>
-      </c>
-      <c r="B220" s="1">
-        <f>AVERAGE(dato!C2191:'dato'!C2200)</f>
-        <v>-0.42506110000000003</v>
-      </c>
-      <c r="C220" s="1">
-        <f>AVERAGE(dato!D2191:'dato'!D2200)</f>
-        <v>0.69216300000000008</v>
-      </c>
-      <c r="D220" s="1">
-        <f>AVERAGE(dato!E2191:'dato'!E2200)</f>
-        <v>-28.4973144</v>
-      </c>
-      <c r="E220" s="1">
-        <f>AVERAGE(dato!F2191:'dato'!F2200)</f>
-        <v>59.576416099999996</v>
-      </c>
-      <c r="F220" s="1">
-        <f>AVERAGE(dato!G2191:'dato'!G2200)</f>
-        <v>35.4003905</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <f>AVERAGE(dato!B2201:'dato'!B2210)</f>
-        <v>0.88284899999999999</v>
-      </c>
-      <c r="B221" s="1">
-        <f>AVERAGE(dato!C2201:'dato'!C2210)</f>
-        <v>-0.16386700000000004</v>
-      </c>
-      <c r="C221" s="1">
-        <f>AVERAGE(dato!D2201:'dato'!D2210)</f>
-        <v>0.3101196</v>
-      </c>
-      <c r="D221" s="1">
-        <f>AVERAGE(dato!E2201:'dato'!E2210)</f>
-        <v>-72.23510739999999</v>
-      </c>
-      <c r="E221" s="1">
-        <f>AVERAGE(dato!F2201:'dato'!F2210)</f>
-        <v>81.781005899999997</v>
-      </c>
-      <c r="F221" s="1">
-        <f>AVERAGE(dato!G2201:'dato'!G2210)</f>
-        <v>36.718749999999993</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <f>AVERAGE(dato!B2211:'dato'!B2220)</f>
-        <v>0.83819589999999999</v>
-      </c>
-      <c r="B222" s="1">
-        <f>AVERAGE(dato!C2211:'dato'!C2220)</f>
-        <v>-6.7932099999999995E-2</v>
-      </c>
-      <c r="C222" s="1">
-        <f>AVERAGE(dato!D2211:'dato'!D2220)</f>
-        <v>-0.30122080000000001</v>
-      </c>
-      <c r="D222" s="1">
-        <f>AVERAGE(dato!E2211:'dato'!E2220)</f>
-        <v>-57.733154299999988</v>
-      </c>
-      <c r="E222" s="1">
-        <f>AVERAGE(dato!F2211:'dato'!F2220)</f>
-        <v>104.60815410000001</v>
-      </c>
-      <c r="F222" s="1">
-        <f>AVERAGE(dato!G2211:'dato'!G2220)</f>
-        <v>44.116211</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <f>AVERAGE(dato!B2221:'dato'!B2230)</f>
-        <v>0.70964349999999998</v>
-      </c>
-      <c r="B223" s="1">
-        <f>AVERAGE(dato!C2221:'dato'!C2230)</f>
-        <v>0.22186279999999997</v>
-      </c>
-      <c r="C223" s="1">
-        <f>AVERAGE(dato!D2221:'dato'!D2230)</f>
-        <v>-0.6381593000000001</v>
-      </c>
-      <c r="D223" s="1">
-        <f>AVERAGE(dato!E2221:'dato'!E2230)</f>
-        <v>-26.776122999999995</v>
-      </c>
-      <c r="E223" s="1">
-        <f>AVERAGE(dato!F2221:'dato'!F2230)</f>
-        <v>75.299072200000012</v>
-      </c>
-      <c r="F223" s="1">
-        <f>AVERAGE(dato!G2221:'dato'!G2230)</f>
-        <v>42.346191399999995</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <f>AVERAGE(dato!B2231:'dato'!B2240)</f>
-        <v>0.46934819999999994</v>
-      </c>
-      <c r="B224" s="1">
-        <f>AVERAGE(dato!C2231:'dato'!C2240)</f>
-        <v>0.17790539999999996</v>
-      </c>
-      <c r="C224" s="1">
-        <f>AVERAGE(dato!D2231:'dato'!D2240)</f>
-        <v>-0.90257549999999998</v>
-      </c>
-      <c r="D224" s="1">
-        <f>AVERAGE(dato!E2231:'dato'!E2240)</f>
-        <v>-5.0964354999999992</v>
-      </c>
-      <c r="E224" s="1">
-        <f>AVERAGE(dato!F2231:'dato'!F2240)</f>
-        <v>42.2302246</v>
-      </c>
-      <c r="F224" s="1">
-        <f>AVERAGE(dato!G2231:'dato'!G2240)</f>
-        <v>38.537597599999998</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <f>AVERAGE(dato!B2241:'dato'!B2250)</f>
-        <v>0.32716070000000003</v>
-      </c>
-      <c r="B225" s="1">
-        <f>AVERAGE(dato!C2241:'dato'!C2250)</f>
-        <v>0.37829599999999997</v>
-      </c>
-      <c r="C225" s="1">
-        <f>AVERAGE(dato!D2241:'dato'!D2250)</f>
-        <v>-1.0755737000000001</v>
-      </c>
-      <c r="D225" s="1">
-        <f>AVERAGE(dato!E2241:'dato'!E2250)</f>
-        <v>-0.79956050000000012</v>
-      </c>
-      <c r="E225" s="1">
-        <f>AVERAGE(dato!F2241:'dato'!F2250)</f>
-        <v>38.977050899999995</v>
-      </c>
-      <c r="F225" s="1">
-        <f>AVERAGE(dato!G2241:'dato'!G2250)</f>
-        <v>45.385742199999996</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <f>AVERAGE(dato!B2251:'dato'!B2260)</f>
-        <v>-1.6642456999999999</v>
-      </c>
-      <c r="B226" s="1">
-        <f>AVERAGE(dato!C2251:'dato'!C2260)</f>
-        <v>0.34506819999999999</v>
-      </c>
-      <c r="C226" s="1">
-        <f>AVERAGE(dato!D2251:'dato'!D2260)</f>
-        <v>-1.8971922999999997</v>
-      </c>
-      <c r="D226" s="1">
-        <f>AVERAGE(dato!E2251:'dato'!E2260)</f>
-        <v>16.113281199999999</v>
-      </c>
-      <c r="E226" s="1">
-        <f>AVERAGE(dato!F2251:'dato'!F2260)</f>
-        <v>-4.028320300000007</v>
-      </c>
-      <c r="F226" s="1">
-        <f>AVERAGE(dato!G2251:'dato'!G2260)</f>
-        <v>-184.9304199</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <f>AVERAGE(dato!B2261:'dato'!B2270)</f>
-        <v>-3.9892986666666665</v>
-      </c>
-      <c r="B227" s="1">
-        <f>AVERAGE(dato!C2261:'dato'!C2270)</f>
-        <v>-3.3380943333333328</v>
-      </c>
-      <c r="C227" s="1">
-        <f>AVERAGE(dato!D2261:'dato'!D2270)</f>
-        <v>3.0120850000000003</v>
-      </c>
-      <c r="D227" s="1">
-        <f>AVERAGE(dato!E2261:'dato'!E2270)</f>
-        <v>139.34326166666668</v>
-      </c>
-      <c r="E227" s="1">
-        <f>AVERAGE(dato!F2261:'dato'!F2270)</f>
-        <v>-1083.1705730000001</v>
-      </c>
-      <c r="F227" s="1">
-        <f>AVERAGE(dato!G2261:'dato'!G2270)</f>
-        <v>-597.96142566666663</v>
       </c>
     </row>
   </sheetData>
@@ -58886,14 +58614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F227"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="I219" sqref="I219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1">
@@ -64509,292 +64237,6 @@
       <c r="F216" s="1">
         <f>_xlfn.VAR.S(dato!G2151:'dato'!G2160)</f>
         <v>3455.2456623293565</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <f>_xlfn.VAR.S(dato!B2161:'dato'!B2170)</f>
-        <v>2.2274019034427144</v>
-      </c>
-      <c r="B217" s="1">
-        <f>_xlfn.VAR.S(dato!C2161:'dato'!C2170)</f>
-        <v>4.4831238761312893</v>
-      </c>
-      <c r="C217" s="1">
-        <f>_xlfn.VAR.S(dato!D2161:'dato'!D2170)</f>
-        <v>8.0368787893833336</v>
-      </c>
-      <c r="D217" s="1">
-        <f>_xlfn.VAR.S(dato!E2161:'dato'!E2170)</f>
-        <v>20706.925839119809</v>
-      </c>
-      <c r="E217" s="1">
-        <f>_xlfn.VAR.S(dato!F2161:'dato'!F2170)</f>
-        <v>236218.20354087197</v>
-      </c>
-      <c r="F217" s="1">
-        <f>_xlfn.VAR.S(dato!G2161:'dato'!G2170)</f>
-        <v>57302.008642938905</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <f>_xlfn.VAR.S(dato!B2171:'dato'!B2180)</f>
-        <v>2.7836992758322014E-2</v>
-      </c>
-      <c r="B218" s="1">
-        <f>_xlfn.VAR.S(dato!C2171:'dato'!C2180)</f>
-        <v>0.18776029612223372</v>
-      </c>
-      <c r="C218" s="1">
-        <f>_xlfn.VAR.S(dato!D2171:'dato'!D2180)</f>
-        <v>1.058447765556767</v>
-      </c>
-      <c r="D218" s="1">
-        <f>_xlfn.VAR.S(dato!E2171:'dato'!E2180)</f>
-        <v>3491.6868083947702</v>
-      </c>
-      <c r="E218" s="1">
-        <f>_xlfn.VAR.S(dato!F2171:'dato'!F2180)</f>
-        <v>6819.0778150900105</v>
-      </c>
-      <c r="F218" s="1">
-        <f>_xlfn.VAR.S(dato!G2171:'dato'!G2180)</f>
-        <v>1833.4188301918034</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <f>_xlfn.VAR.S(dato!B2181:'dato'!B2190)</f>
-        <v>3.4904368911556163E-3</v>
-      </c>
-      <c r="B219" s="1">
-        <f>_xlfn.VAR.S(dato!C2181:'dato'!C2190)</f>
-        <v>5.5910917924890668E-3</v>
-      </c>
-      <c r="C219" s="1">
-        <f>_xlfn.VAR.S(dato!D2181:'dato'!D2190)</f>
-        <v>8.3968194964886399E-3</v>
-      </c>
-      <c r="D219" s="1">
-        <f>_xlfn.VAR.S(dato!E2181:'dato'!E2190)</f>
-        <v>215.58788956839243</v>
-      </c>
-      <c r="E219" s="1">
-        <f>_xlfn.VAR.S(dato!F2181:'dato'!F2190)</f>
-        <v>195.48816194720834</v>
-      </c>
-      <c r="F219" s="1">
-        <f>_xlfn.VAR.S(dato!G2181:'dato'!G2190)</f>
-        <v>308.32592973062731</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <f>_xlfn.VAR.S(dato!B2191:'dato'!B2200)</f>
-        <v>4.1014658720999984E-3</v>
-      </c>
-      <c r="B220" s="1">
-        <f>_xlfn.VAR.S(dato!C2191:'dato'!C2200)</f>
-        <v>7.986590543655506E-3</v>
-      </c>
-      <c r="C220" s="1">
-        <f>_xlfn.VAR.S(dato!D2191:'dato'!D2200)</f>
-        <v>5.3503894026666679E-3</v>
-      </c>
-      <c r="D220" s="1">
-        <f>_xlfn.VAR.S(dato!E2191:'dato'!E2200)</f>
-        <v>193.80735641460421</v>
-      </c>
-      <c r="E220" s="1">
-        <f>_xlfn.VAR.S(dato!F2191:'dato'!F2200)</f>
-        <v>164.19543906383558</v>
-      </c>
-      <c r="F220" s="1">
-        <f>_xlfn.VAR.S(dato!G2191:'dato'!G2200)</f>
-        <v>80.992780858357946</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <f>_xlfn.VAR.S(dato!B2201:'dato'!B2210)</f>
-        <v>2.9763388277777771E-3</v>
-      </c>
-      <c r="B221" s="1">
-        <f>_xlfn.VAR.S(dato!C2201:'dato'!C2210)</f>
-        <v>4.1355672088888695E-3</v>
-      </c>
-      <c r="C221" s="1">
-        <f>_xlfn.VAR.S(dato!D2201:'dato'!D2210)</f>
-        <v>3.4639056050488892E-2</v>
-      </c>
-      <c r="D221" s="1">
-        <f>_xlfn.VAR.S(dato!E2201:'dato'!E2210)</f>
-        <v>193.74344794919955</v>
-      </c>
-      <c r="E221" s="1">
-        <f>_xlfn.VAR.S(dato!F2201:'dato'!F2210)</f>
-        <v>159.99496936185622</v>
-      </c>
-      <c r="F221" s="1">
-        <f>_xlfn.VAR.S(dato!G2201:'dato'!G2210)</f>
-        <v>59.956643887838155</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <f>_xlfn.VAR.S(dato!B2211:'dato'!B2220)</f>
-        <v>9.0217078365555613E-4</v>
-      </c>
-      <c r="B222" s="1">
-        <f>_xlfn.VAR.S(dato!C2211:'dato'!C2220)</f>
-        <v>9.4700969321000004E-3</v>
-      </c>
-      <c r="C222" s="1">
-        <f>_xlfn.VAR.S(dato!D2211:'dato'!D2220)</f>
-        <v>1.171777136084446E-2</v>
-      </c>
-      <c r="D222" s="1">
-        <f>_xlfn.VAR.S(dato!E2211:'dato'!E2220)</f>
-        <v>220.2171816806173</v>
-      </c>
-      <c r="E222" s="1">
-        <f>_xlfn.VAR.S(dato!F2211:'dato'!F2220)</f>
-        <v>48.861281820911877</v>
-      </c>
-      <c r="F222" s="1">
-        <f>_xlfn.VAR.S(dato!G2211:'dato'!G2220)</f>
-        <v>313.35635180621711</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <f>_xlfn.VAR.S(dato!B2221:'dato'!B2230)</f>
-        <v>6.4230523082778506E-3</v>
-      </c>
-      <c r="B223" s="1">
-        <f>_xlfn.VAR.S(dato!C2221:'dato'!C2230)</f>
-        <v>4.3555460144000186E-3</v>
-      </c>
-      <c r="C223" s="1">
-        <f>_xlfn.VAR.S(dato!D2221:'dato'!D2230)</f>
-        <v>1.2480255210899967E-2</v>
-      </c>
-      <c r="D223" s="1">
-        <f>_xlfn.VAR.S(dato!E2221:'dato'!E2230)</f>
-        <v>34.071544195705428</v>
-      </c>
-      <c r="E223" s="1">
-        <f>_xlfn.VAR.S(dato!F2221:'dato'!F2230)</f>
-        <v>133.36294938742179</v>
-      </c>
-      <c r="F223" s="1">
-        <f>_xlfn.VAR.S(dato!G2221:'dato'!G2230)</f>
-        <v>107.99765194939593</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <f>_xlfn.VAR.S(dato!B2231:'dato'!B2240)</f>
-        <v>5.0206945401778391E-3</v>
-      </c>
-      <c r="B224" s="1">
-        <f>_xlfn.VAR.S(dato!C2231:'dato'!C2240)</f>
-        <v>4.4371951867111202E-3</v>
-      </c>
-      <c r="C224" s="1">
-        <f>_xlfn.VAR.S(dato!D2231:'dato'!D2240)</f>
-        <v>9.363430848499851E-3</v>
-      </c>
-      <c r="D224" s="1">
-        <f>_xlfn.VAR.S(dato!E2231:'dato'!E2240)</f>
-        <v>67.538888742552956</v>
-      </c>
-      <c r="E224" s="1">
-        <f>_xlfn.VAR.S(dato!F2231:'dato'!F2240)</f>
-        <v>218.00767474066419</v>
-      </c>
-      <c r="F224" s="1">
-        <f>_xlfn.VAR.S(dato!G2231:'dato'!G2240)</f>
-        <v>58.689218334706716</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <f>_xlfn.VAR.S(dato!B2241:'dato'!B2250)</f>
-        <v>4.9774758767122201E-2</v>
-      </c>
-      <c r="B225" s="1">
-        <f>_xlfn.VAR.S(dato!C2241:'dato'!C2250)</f>
-        <v>2.9938594753333467E-3</v>
-      </c>
-      <c r="C225" s="1">
-        <f>_xlfn.VAR.S(dato!D2241:'dato'!D2250)</f>
-        <v>1.0363243927566669E-2</v>
-      </c>
-      <c r="D225" s="1">
-        <f>_xlfn.VAR.S(dato!E2241:'dato'!E2250)</f>
-        <v>37.772333298895163</v>
-      </c>
-      <c r="E225" s="1">
-        <f>_xlfn.VAR.S(dato!F2241:'dato'!F2250)</f>
-        <v>481.78201697167361</v>
-      </c>
-      <c r="F225" s="1">
-        <f>_xlfn.VAR.S(dato!G2241:'dato'!G2250)</f>
-        <v>1165.0698121234475</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <f>_xlfn.VAR.S(dato!B2251:'dato'!B2260)</f>
-        <v>1.9934311639266784</v>
-      </c>
-      <c r="B226" s="1">
-        <f>_xlfn.VAR.S(dato!C2251:'dato'!C2260)</f>
-        <v>6.21940727464E-2</v>
-      </c>
-      <c r="C226" s="1">
-        <f>_xlfn.VAR.S(dato!D2251:'dato'!D2260)</f>
-        <v>0.3555932611493462</v>
-      </c>
-      <c r="D226" s="1">
-        <f>_xlfn.VAR.S(dato!E2251:'dato'!E2260)</f>
-        <v>1083.6314889784921</v>
-      </c>
-      <c r="E226" s="1">
-        <f>_xlfn.VAR.S(dato!F2251:'dato'!F2260)</f>
-        <v>46214.241099203318</v>
-      </c>
-      <c r="F226" s="1">
-        <f>_xlfn.VAR.S(dato!G2251:'dato'!G2260)</f>
-        <v>12003.987541088331</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <f>_xlfn.VAR.S(dato!B2261:'dato'!B2270)</f>
-        <v>3.1293653333333332E-4</v>
-      </c>
-      <c r="B227" s="1">
-        <f>_xlfn.VAR.S(dato!C2261:'dato'!C2270)</f>
-        <v>1.3124199893363375</v>
-      </c>
-      <c r="C227" s="1">
-        <f>_xlfn.VAR.S(dato!D2261:'dato'!D2270)</f>
-        <v>2.9250362409870014</v>
-      </c>
-      <c r="D227" s="1">
-        <f>_xlfn.VAR.S(dato!E2261:'dato'!E2270)</f>
-        <v>22651.355560930257</v>
-      </c>
-      <c r="E227" s="1">
-        <f>_xlfn.VAR.S(dato!F2261:'dato'!F2270)</f>
-        <v>19900.356696200091</v>
-      </c>
-      <c r="F227" s="1">
-        <f>_xlfn.VAR.S(dato!G2261:'dato'!G2270)</f>
-        <v>21656.047475130064</v>
       </c>
     </row>
   </sheetData>
@@ -64803,14 +64245,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:XFD227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1">
@@ -70426,292 +69868,6 @@
       <c r="F216" s="1">
         <f>SUMSQ(dato!G2151:'dato'!G2160)</f>
         <v>35582.79574849701</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <f>SUMSQ(dato!B2161:'dato'!B2170)</f>
-        <v>89.303876507692024</v>
-      </c>
-      <c r="B217" s="1">
-        <f>SUMSQ(dato!C2161:'dato'!C2170)</f>
-        <v>57.759424076868001</v>
-      </c>
-      <c r="C217" s="1">
-        <f>SUMSQ(dato!D2161:'dato'!D2170)</f>
-        <v>72.33376823670001</v>
-      </c>
-      <c r="D217" s="1">
-        <f>SUMSQ(dato!E2161:'dato'!E2170)</f>
-        <v>225868.59074039845</v>
-      </c>
-      <c r="E217" s="1">
-        <f>SUMSQ(dato!F2161:'dato'!F2170)</f>
-        <v>3385251.9782454697</v>
-      </c>
-      <c r="F217" s="1">
-        <f>SUMSQ(dato!G2161:'dato'!G2170)</f>
-        <v>1285523.1531187096</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <f>SUMSQ(dato!B2171:'dato'!B2180)</f>
-        <v>6.3597702126169997</v>
-      </c>
-      <c r="B218" s="1">
-        <f>SUMSQ(dato!C2171:'dato'!C2180)</f>
-        <v>8.8306284051489996</v>
-      </c>
-      <c r="C218" s="1">
-        <f>SUMSQ(dato!D2171:'dato'!D2180)</f>
-        <v>43.266322999807002</v>
-      </c>
-      <c r="D218" s="1">
-        <f>SUMSQ(dato!E2171:'dato'!E2180)</f>
-        <v>85616.130469861979</v>
-      </c>
-      <c r="E218" s="1">
-        <f>SUMSQ(dato!F2171:'dato'!F2180)</f>
-        <v>68176.716445999147</v>
-      </c>
-      <c r="F218" s="1">
-        <f>SUMSQ(dato!G2171:'dato'!G2180)</f>
-        <v>43175.876037384041</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <f>SUMSQ(dato!B2181:'dato'!B2190)</f>
-        <v>2.99084356443</v>
-      </c>
-      <c r="B219" s="1">
-        <f>SUMSQ(dato!C2181:'dato'!C2190)</f>
-        <v>4.3203489687439998</v>
-      </c>
-      <c r="C219" s="1">
-        <f>SUMSQ(dato!D2181:'dato'!D2190)</f>
-        <v>4.4696491073339999</v>
-      </c>
-      <c r="D219" s="1">
-        <f>SUMSQ(dato!E2181:'dato'!E2190)</f>
-        <v>2015.3932411670687</v>
-      </c>
-      <c r="E219" s="1">
-        <f>SUMSQ(dato!F2181:'dato'!F2190)</f>
-        <v>8782.6698759841929</v>
-      </c>
-      <c r="F219" s="1">
-        <f>SUMSQ(dato!G2181:'dato'!G2190)</f>
-        <v>3306.9141541118624</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <f>SUMSQ(dato!B2191:'dato'!B2200)</f>
-        <v>4.1160869887770009</v>
-      </c>
-      <c r="B220" s="1">
-        <f>SUMSQ(dato!C2191:'dato'!C2200)</f>
-        <v>1.8786487022249998</v>
-      </c>
-      <c r="C220" s="1">
-        <f>SUMSQ(dato!D2191:'dato'!D2200)</f>
-        <v>4.8390496903139999</v>
-      </c>
-      <c r="D220" s="1">
-        <f>SUMSQ(dato!E2191:'dato'!E2200)</f>
-        <v>9865.2354878559108</v>
-      </c>
-      <c r="E220" s="1">
-        <f>SUMSQ(dato!F2191:'dato'!F2200)</f>
-        <v>36971.252504777905</v>
-      </c>
-      <c r="F220" s="1">
-        <f>SUMSQ(dato!G2191:'dato'!G2200)</f>
-        <v>13260.811503250126</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <f>SUMSQ(dato!B2201:'dato'!B2210)</f>
-        <v>7.8210106174599998</v>
-      </c>
-      <c r="B221" s="1">
-        <f>SUMSQ(dato!C2201:'dato'!C2210)</f>
-        <v>0.30574404177000003</v>
-      </c>
-      <c r="C221" s="1">
-        <f>SUMSQ(dato!D2201:'dato'!D2210)</f>
-        <v>1.2734931674959999</v>
-      </c>
-      <c r="D221" s="1">
-        <f>SUMSQ(dato!E2201:'dato'!E2210)</f>
-        <v>53922.798442438128</v>
-      </c>
-      <c r="E221" s="1">
-        <f>SUMSQ(dato!F2201:'dato'!F2210)</f>
-        <v>68321.283984415059</v>
-      </c>
-      <c r="F221" s="1">
-        <f>SUMSQ(dato!G2201:'dato'!G2210)</f>
-        <v>14022.27581061554</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <f>SUMSQ(dato!B2211:'dato'!B2220)</f>
-        <v>7.0338432048209993</v>
-      </c>
-      <c r="B222" s="1">
-        <f>SUMSQ(dato!C2211:'dato'!C2220)</f>
-        <v>0.131378574493</v>
-      </c>
-      <c r="C222" s="1">
-        <f>SUMSQ(dato!D2211:'dato'!D2220)</f>
-        <v>1.0127996457740003</v>
-      </c>
-      <c r="D222" s="1">
-        <f>SUMSQ(dato!E2211:'dato'!E2220)</f>
-        <v>35313.125689401626</v>
-      </c>
-      <c r="E222" s="1">
-        <f>SUMSQ(dato!F2211:'dato'!F2220)</f>
-        <v>109868.41057848168</v>
-      </c>
-      <c r="F222" s="1">
-        <f>SUMSQ(dato!G2211:'dato'!G2220)</f>
-        <v>22282.607896221161</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <f>SUMSQ(dato!B2221:'dato'!B2230)</f>
-        <v>5.0937464416970002</v>
-      </c>
-      <c r="B223" s="1">
-        <f>SUMSQ(dato!C2221:'dato'!C2230)</f>
-        <v>0.53143093436800004</v>
-      </c>
-      <c r="C223" s="1">
-        <f>SUMSQ(dato!D2221:'dato'!D2230)</f>
-        <v>4.184795218663</v>
-      </c>
-      <c r="D223" s="1">
-        <f>SUMSQ(dato!E2221:'dato'!E2230)</f>
-        <v>7476.2515268726356</v>
-      </c>
-      <c r="E223" s="1">
-        <f>SUMSQ(dato!F2221:'dato'!F2230)</f>
-        <v>57899.769286294941</v>
-      </c>
-      <c r="F223" s="1">
-        <f>SUMSQ(dato!G2221:'dato'!G2230)</f>
-        <v>18903.9781283989</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <f>SUMSQ(dato!B2231:'dato'!B2240)</f>
-        <v>2.248063579294</v>
-      </c>
-      <c r="B224" s="1">
-        <f>SUMSQ(dato!C2231:'dato'!C2240)</f>
-        <v>0.35643807017199997</v>
-      </c>
-      <c r="C224" s="1">
-        <f>SUMSQ(dato!D2231:'dato'!D2240)</f>
-        <v>8.2306962096389995</v>
-      </c>
-      <c r="D224" s="1">
-        <f>SUMSQ(dato!E2231:'dato'!E2240)</f>
-        <v>867.58654673957903</v>
-      </c>
-      <c r="E224" s="1">
-        <f>SUMSQ(dato!F2231:'dato'!F2240)</f>
-        <v>19795.98777033043</v>
-      </c>
-      <c r="F224" s="1">
-        <f>SUMSQ(dato!G2231:'dato'!G2240)</f>
-        <v>15379.667252807618</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <f>SUMSQ(dato!B2241:'dato'!B2250)</f>
-        <v>1.5183140651490001</v>
-      </c>
-      <c r="B225" s="1">
-        <f>SUMSQ(dato!C2241:'dato'!C2250)</f>
-        <v>1.458023371438</v>
-      </c>
-      <c r="C225" s="1">
-        <f>SUMSQ(dato!D2241:'dato'!D2250)</f>
-        <v>11.661857036664999</v>
-      </c>
-      <c r="D225" s="1">
-        <f>SUMSQ(dato!E2241:'dato'!E2250)</f>
-        <v>346.34396962165897</v>
-      </c>
-      <c r="E225" s="1">
-        <f>SUMSQ(dato!F2241:'dato'!F2250)</f>
-        <v>19528.143121356967</v>
-      </c>
-      <c r="F225" s="1">
-        <f>SUMSQ(dato!G2241:'dato'!G2250)</f>
-        <v>31084.284259559634</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <f>SUMSQ(dato!B2251:'dato'!B2260)</f>
-        <v>45.638017975025008</v>
-      </c>
-      <c r="B226" s="1">
-        <f>SUMSQ(dato!C2251:'dato'!C2260)</f>
-        <v>1.7504672812299999</v>
-      </c>
-      <c r="C226" s="1">
-        <f>SUMSQ(dato!D2251:'dato'!D2260)</f>
-        <v>39.193725582136999</v>
-      </c>
-      <c r="D226" s="1">
-        <f>SUMSQ(dato!E2251:'dato'!E2260)</f>
-        <v>12349.061711109163</v>
-      </c>
-      <c r="E226" s="1">
-        <f>SUMSQ(dato!F2251:'dato'!F2260)</f>
-        <v>416090.44353722379</v>
-      </c>
-      <c r="F226" s="1">
-        <f>SUMSQ(dato!G2251:'dato'!G2260)</f>
-        <v>450028.48991369817</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <f>SUMSQ(dato!B2261:'dato'!B2270)</f>
-        <v>47.744137428672005</v>
-      </c>
-      <c r="B227" s="1">
-        <f>SUMSQ(dato!C2261:'dato'!C2270)</f>
-        <v>36.053461313368999</v>
-      </c>
-      <c r="C227" s="1">
-        <f>SUMSQ(dato!D2261:'dato'!D2270)</f>
-        <v>33.068040623649004</v>
-      </c>
-      <c r="D227" s="1">
-        <f>SUMSQ(dato!E2261:'dato'!E2270)</f>
-        <v>103552.34483757592</v>
-      </c>
-      <c r="E227" s="1">
-        <f>SUMSQ(dato!F2261:'dato'!F2270)</f>
-        <v>3559576.1840318451</v>
-      </c>
-      <c r="F227" s="1">
-        <f>SUMSQ(dato!G2261:'dato'!G2270)</f>
-        <v>1115985.6947061976</v>
       </c>
     </row>
   </sheetData>
@@ -70720,14 +69876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F227"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1">
@@ -76343,292 +75499,6 @@
       <c r="F216" s="1">
         <f>MIN(dato!G2151:'dato'!G2160)</f>
         <v>-66.833495999999997</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <f>MIN(dato!B2161:'dato'!B2170)</f>
-        <v>-3.9995120000000002</v>
-      </c>
-      <c r="B217" s="1">
-        <f>MIN(dato!C2161:'dato'!C2170)</f>
-        <v>-3.9995120000000002</v>
-      </c>
-      <c r="C217" s="1">
-        <f>MIN(dato!D2161:'dato'!D2170)</f>
-        <v>-3.017944</v>
-      </c>
-      <c r="D217" s="1">
-        <f>MIN(dato!E2161:'dato'!E2170)</f>
-        <v>-115.478516</v>
-      </c>
-      <c r="E217" s="1">
-        <f>MIN(dato!F2161:'dato'!F2170)</f>
-        <v>-1247.0703120000001</v>
-      </c>
-      <c r="F217" s="1">
-        <f>MIN(dato!G2161:'dato'!G2170)</f>
-        <v>-722.83935499999995</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <f>MIN(dato!B2171:'dato'!B2180)</f>
-        <v>0.58496099999999995</v>
-      </c>
-      <c r="B218" s="1">
-        <f>MIN(dato!C2171:'dato'!C2180)</f>
-        <v>-1.3940429999999999</v>
-      </c>
-      <c r="C218" s="1">
-        <f>MIN(dato!D2171:'dato'!D2180)</f>
-        <v>0.97216800000000003</v>
-      </c>
-      <c r="D218" s="1">
-        <f>MIN(dato!E2171:'dato'!E2180)</f>
-        <v>19.836425999999999</v>
-      </c>
-      <c r="E218" s="1">
-        <f>MIN(dato!F2171:'dato'!F2180)</f>
-        <v>-237.243652</v>
-      </c>
-      <c r="F218" s="1">
-        <f>MIN(dato!G2171:'dato'!G2180)</f>
-        <v>-125.732422</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <f>MIN(dato!B2181:'dato'!B2190)</f>
-        <v>0.45458999999999999</v>
-      </c>
-      <c r="B219" s="1">
-        <f>MIN(dato!C2181:'dato'!C2190)</f>
-        <v>-0.75012199999999996</v>
-      </c>
-      <c r="C219" s="1">
-        <f>MIN(dato!D2181:'dato'!D2190)</f>
-        <v>0.49194300000000002</v>
-      </c>
-      <c r="D219" s="1">
-        <f>MIN(dato!E2181:'dato'!E2190)</f>
-        <v>-14.099121</v>
-      </c>
-      <c r="E219" s="1">
-        <f>MIN(dato!F2181:'dato'!F2190)</f>
-        <v>12.329102000000001</v>
-      </c>
-      <c r="F219" s="1">
-        <f>MIN(dato!G2181:'dato'!G2190)</f>
-        <v>-29.23584</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <f>MIN(dato!B2191:'dato'!B2200)</f>
-        <v>0.564697</v>
-      </c>
-      <c r="B220" s="1">
-        <f>MIN(dato!C2191:'dato'!C2200)</f>
-        <v>-0.56201199999999996</v>
-      </c>
-      <c r="C220" s="1">
-        <f>MIN(dato!D2191:'dato'!D2200)</f>
-        <v>0.57434099999999999</v>
-      </c>
-      <c r="D220" s="1">
-        <f>MIN(dato!E2191:'dato'!E2200)</f>
-        <v>-52.429198999999997</v>
-      </c>
-      <c r="E220" s="1">
-        <f>MIN(dato!F2191:'dato'!F2200)</f>
-        <v>30.883789</v>
-      </c>
-      <c r="F220" s="1">
-        <f>MIN(dato!G2191:'dato'!G2200)</f>
-        <v>23.4375</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <f>MIN(dato!B2201:'dato'!B2210)</f>
-        <v>0.77844199999999997</v>
-      </c>
-      <c r="B221" s="1">
-        <f>MIN(dato!C2201:'dato'!C2210)</f>
-        <v>-0.28515600000000002</v>
-      </c>
-      <c r="C221" s="1">
-        <f>MIN(dato!D2201:'dato'!D2210)</f>
-        <v>-1.5015000000000001E-2</v>
-      </c>
-      <c r="D221" s="1">
-        <f>MIN(dato!E2201:'dato'!E2210)</f>
-        <v>-90.698241999999993</v>
-      </c>
-      <c r="E221" s="1">
-        <f>MIN(dato!F2201:'dato'!F2210)</f>
-        <v>63.293456999999997</v>
-      </c>
-      <c r="F221" s="1">
-        <f>MIN(dato!G2201:'dato'!G2210)</f>
-        <v>24.291992</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <f>MIN(dato!B2211:'dato'!B2220)</f>
-        <v>0.79479999999999995</v>
-      </c>
-      <c r="B222" s="1">
-        <f>MIN(dato!C2211:'dato'!C2220)</f>
-        <v>-0.16333</v>
-      </c>
-      <c r="C222" s="1">
-        <f>MIN(dato!D2211:'dato'!D2220)</f>
-        <v>-0.43176300000000001</v>
-      </c>
-      <c r="D222" s="1">
-        <f>MIN(dato!E2211:'dato'!E2220)</f>
-        <v>-75.378417999999996</v>
-      </c>
-      <c r="E222" s="1">
-        <f>MIN(dato!F2211:'dato'!F2220)</f>
-        <v>95.031738000000004</v>
-      </c>
-      <c r="F222" s="1">
-        <f>MIN(dato!G2211:'dato'!G2220)</f>
-        <v>19.042968999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <f>MIN(dato!B2221:'dato'!B2230)</f>
-        <v>0.55822799999999995</v>
-      </c>
-      <c r="B223" s="1">
-        <f>MIN(dato!C2221:'dato'!C2230)</f>
-        <v>0.12609899999999999</v>
-      </c>
-      <c r="C223" s="1">
-        <f>MIN(dato!D2221:'dato'!D2230)</f>
-        <v>-0.81213400000000002</v>
-      </c>
-      <c r="D223" s="1">
-        <f>MIN(dato!E2221:'dato'!E2230)</f>
-        <v>-34.912109000000001</v>
-      </c>
-      <c r="E223" s="1">
-        <f>MIN(dato!F2221:'dato'!F2230)</f>
-        <v>61.828612999999997</v>
-      </c>
-      <c r="F223" s="1">
-        <f>MIN(dato!G2221:'dato'!G2230)</f>
-        <v>31.921386999999999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <f>MIN(dato!B2231:'dato'!B2240)</f>
-        <v>0.37304700000000002</v>
-      </c>
-      <c r="B224" s="1">
-        <f>MIN(dato!C2231:'dato'!C2240)</f>
-        <v>5.0415000000000001E-2</v>
-      </c>
-      <c r="C224" s="1">
-        <f>MIN(dato!D2231:'dato'!D2240)</f>
-        <v>-1.044189</v>
-      </c>
-      <c r="D224" s="1">
-        <f>MIN(dato!E2231:'dato'!E2240)</f>
-        <v>-15.686035</v>
-      </c>
-      <c r="E224" s="1">
-        <f>MIN(dato!F2231:'dato'!F2240)</f>
-        <v>17.395019999999999</v>
-      </c>
-      <c r="F224" s="1">
-        <f>MIN(dato!G2231:'dato'!G2240)</f>
-        <v>26.245117</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <f>MIN(dato!B2241:'dato'!B2250)</f>
-        <v>-7.4218999999999993E-2</v>
-      </c>
-      <c r="B225" s="1">
-        <f>MIN(dato!C2241:'dato'!C2250)</f>
-        <v>0.297485</v>
-      </c>
-      <c r="C225" s="1">
-        <f>MIN(dato!D2241:'dato'!D2250)</f>
-        <v>-1.2613529999999999</v>
-      </c>
-      <c r="D225" s="1">
-        <f>MIN(dato!E2241:'dato'!E2250)</f>
-        <v>-10.314940999999999</v>
-      </c>
-      <c r="E225" s="1">
-        <f>MIN(dato!F2241:'dato'!F2250)</f>
-        <v>11.535645000000001</v>
-      </c>
-      <c r="F225" s="1">
-        <f>MIN(dato!G2241:'dato'!G2250)</f>
-        <v>-22.583008</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <f>MIN(dato!B2251:'dato'!B2260)</f>
-        <v>-3.9995120000000002</v>
-      </c>
-      <c r="B226" s="1">
-        <f>MIN(dato!C2251:'dato'!C2260)</f>
-        <v>-0.13586400000000001</v>
-      </c>
-      <c r="C226" s="1">
-        <f>MIN(dato!D2251:'dato'!D2260)</f>
-        <v>-2.9628909999999999</v>
-      </c>
-      <c r="D226" s="1">
-        <f>MIN(dato!E2251:'dato'!E2260)</f>
-        <v>-54.626465000000003</v>
-      </c>
-      <c r="E226" s="1">
-        <f>MIN(dato!F2251:'dato'!F2260)</f>
-        <v>-582.15332000000001</v>
-      </c>
-      <c r="F226" s="1">
-        <f>MIN(dato!G2251:'dato'!G2260)</f>
-        <v>-363.40332000000001</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <f>MIN(dato!B2261:'dato'!B2270)</f>
-        <v>-3.9995120000000002</v>
-      </c>
-      <c r="B227" s="1">
-        <f>MIN(dato!C2261:'dato'!C2270)</f>
-        <v>-3.9995120000000002</v>
-      </c>
-      <c r="C227" s="1">
-        <f>MIN(dato!D2261:'dato'!D2270)</f>
-        <v>1.037231</v>
-      </c>
-      <c r="D227" s="1">
-        <f>MIN(dato!E2261:'dato'!E2270)</f>
-        <v>-20.507812000000001</v>
-      </c>
-      <c r="E227" s="1">
-        <f>MIN(dato!F2261:'dato'!F2270)</f>
-        <v>-1244.140625</v>
-      </c>
-      <c r="F227" s="1">
-        <f>MIN(dato!G2261:'dato'!G2270)</f>
-        <v>-765.80810499999995</v>
       </c>
     </row>
   </sheetData>
@@ -76637,14 +75507,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F227"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1">
@@ -82262,292 +81132,6 @@
         <v>90.637207000000004</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <f>MAX(dato!B2161:'dato'!B2170)</f>
-        <v>-0.68640100000000004</v>
-      </c>
-      <c r="B217" s="1">
-        <f>MAX(dato!C2161:'dato'!C2170)</f>
-        <v>0.98767099999999997</v>
-      </c>
-      <c r="C217" s="1">
-        <f>MAX(dato!D2161:'dato'!D2170)</f>
-        <v>3.9995120000000002</v>
-      </c>
-      <c r="D217" s="1">
-        <f>MAX(dato!E2161:'dato'!E2170)</f>
-        <v>406.55517600000002</v>
-      </c>
-      <c r="E217" s="1">
-        <f>MAX(dato!F2161:'dato'!F2170)</f>
-        <v>70.983886999999996</v>
-      </c>
-      <c r="F217" s="1">
-        <f>MAX(dato!G2161:'dato'!G2170)</f>
-        <v>71.533203</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <f>MAX(dato!B2171:'dato'!B2180)</f>
-        <v>1.101318</v>
-      </c>
-      <c r="B218" s="1">
-        <f>MAX(dato!C2171:'dato'!C2180)</f>
-        <v>0.216553</v>
-      </c>
-      <c r="C218" s="1">
-        <f>MAX(dato!D2171:'dato'!D2180)</f>
-        <v>3.9995120000000002</v>
-      </c>
-      <c r="D218" s="1">
-        <f>MAX(dato!E2171:'dato'!E2180)</f>
-        <v>165.64941400000001</v>
-      </c>
-      <c r="E218" s="1">
-        <f>MAX(dato!F2171:'dato'!F2180)</f>
-        <v>61.340331999999997</v>
-      </c>
-      <c r="F218" s="1">
-        <f>MAX(dato!G2171:'dato'!G2180)</f>
-        <v>-9.7045899999999996</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <f>MAX(dato!B2181:'dato'!B2190)</f>
-        <v>0.65332000000000001</v>
-      </c>
-      <c r="B219" s="1">
-        <f>MAX(dato!C2181:'dato'!C2190)</f>
-        <v>-0.55542000000000002</v>
-      </c>
-      <c r="C219" s="1">
-        <f>MAX(dato!D2181:'dato'!D2190)</f>
-        <v>0.83129900000000001</v>
-      </c>
-      <c r="D219" s="1">
-        <f>MAX(dato!E2181:'dato'!E2190)</f>
-        <v>28.076172</v>
-      </c>
-      <c r="E219" s="1">
-        <f>MAX(dato!F2181:'dato'!F2190)</f>
-        <v>50.476073999999997</v>
-      </c>
-      <c r="F219" s="1">
-        <f>MAX(dato!G2181:'dato'!G2190)</f>
-        <v>23.864746</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <f>MAX(dato!B2191:'dato'!B2200)</f>
-        <v>0.72875999999999996</v>
-      </c>
-      <c r="B220" s="1">
-        <f>MAX(dato!C2191:'dato'!C2200)</f>
-        <v>-0.32031300000000001</v>
-      </c>
-      <c r="C220" s="1">
-        <f>MAX(dato!D2191:'dato'!D2200)</f>
-        <v>0.810303</v>
-      </c>
-      <c r="D220" s="1">
-        <f>MAX(dato!E2191:'dato'!E2200)</f>
-        <v>-8.1176759999999994</v>
-      </c>
-      <c r="E220" s="1">
-        <f>MAX(dato!F2191:'dato'!F2200)</f>
-        <v>76.965332000000004</v>
-      </c>
-      <c r="F220" s="1">
-        <f>MAX(dato!G2191:'dato'!G2200)</f>
-        <v>50.415039</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <f>MAX(dato!B2201:'dato'!B2210)</f>
-        <v>0.94433599999999995</v>
-      </c>
-      <c r="B221" s="1">
-        <f>MAX(dato!C2201:'dato'!C2210)</f>
-        <v>-7.3242000000000002E-2</v>
-      </c>
-      <c r="C221" s="1">
-        <f>MAX(dato!D2201:'dato'!D2210)</f>
-        <v>0.51098600000000005</v>
-      </c>
-      <c r="D221" s="1">
-        <f>MAX(dato!E2201:'dato'!E2210)</f>
-        <v>-50.720215000000003</v>
-      </c>
-      <c r="E221" s="1">
-        <f>MAX(dato!F2201:'dato'!F2210)</f>
-        <v>99.670410000000004</v>
-      </c>
-      <c r="F221" s="1">
-        <f>MAX(dato!G2201:'dato'!G2210)</f>
-        <v>49.072265999999999</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <f>MAX(dato!B2211:'dato'!B2220)</f>
-        <v>0.88977099999999998</v>
-      </c>
-      <c r="B222" s="1">
-        <f>MAX(dato!C2211:'dato'!C2220)</f>
-        <v>0.16625999999999999</v>
-      </c>
-      <c r="C222" s="1">
-        <f>MAX(dato!D2211:'dato'!D2220)</f>
-        <v>-8.5936999999999999E-2</v>
-      </c>
-      <c r="D222" s="1">
-        <f>MAX(dato!E2211:'dato'!E2220)</f>
-        <v>-34.362793000000003</v>
-      </c>
-      <c r="E222" s="1">
-        <f>MAX(dato!F2211:'dato'!F2220)</f>
-        <v>115.661621</v>
-      </c>
-      <c r="F222" s="1">
-        <f>MAX(dato!G2211:'dato'!G2220)</f>
-        <v>73.791504000000003</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <f>MAX(dato!B2221:'dato'!B2230)</f>
-        <v>0.804199</v>
-      </c>
-      <c r="B223" s="1">
-        <f>MAX(dato!C2221:'dato'!C2230)</f>
-        <v>0.30615199999999998</v>
-      </c>
-      <c r="C223" s="1">
-        <f>MAX(dato!D2221:'dato'!D2230)</f>
-        <v>-0.47448699999999999</v>
-      </c>
-      <c r="D223" s="1">
-        <f>MAX(dato!E2221:'dato'!E2230)</f>
-        <v>-18.249511999999999</v>
-      </c>
-      <c r="E223" s="1">
-        <f>MAX(dato!F2221:'dato'!F2230)</f>
-        <v>94.665526999999997</v>
-      </c>
-      <c r="F223" s="1">
-        <f>MAX(dato!G2221:'dato'!G2230)</f>
-        <v>64.208984000000001</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <f>MAX(dato!B2231:'dato'!B2240)</f>
-        <v>0.58898899999999998</v>
-      </c>
-      <c r="B224" s="1">
-        <f>MAX(dato!C2231:'dato'!C2240)</f>
-        <v>0.26477099999999998</v>
-      </c>
-      <c r="C224" s="1">
-        <f>MAX(dato!D2231:'dato'!D2240)</f>
-        <v>-0.71960400000000002</v>
-      </c>
-      <c r="D224" s="1">
-        <f>MAX(dato!E2231:'dato'!E2240)</f>
-        <v>6.8359370000000004</v>
-      </c>
-      <c r="E224" s="1">
-        <f>MAX(dato!F2231:'dato'!F2240)</f>
-        <v>62.316895000000002</v>
-      </c>
-      <c r="F224" s="1">
-        <f>MAX(dato!G2231:'dato'!G2240)</f>
-        <v>51.391601999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <f>MAX(dato!B2241:'dato'!B2250)</f>
-        <v>0.53002899999999997</v>
-      </c>
-      <c r="B225" s="1">
-        <f>MAX(dato!C2241:'dato'!C2250)</f>
-        <v>0.447266</v>
-      </c>
-      <c r="C225" s="1">
-        <f>MAX(dato!D2241:'dato'!D2250)</f>
-        <v>-0.93591299999999999</v>
-      </c>
-      <c r="D225" s="1">
-        <f>MAX(dato!E2241:'dato'!E2250)</f>
-        <v>8.5449219999999997</v>
-      </c>
-      <c r="E225" s="1">
-        <f>MAX(dato!F2241:'dato'!F2250)</f>
-        <v>75.012207000000004</v>
-      </c>
-      <c r="F225" s="1">
-        <f>MAX(dato!G2241:'dato'!G2250)</f>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <f>MAX(dato!B2251:'dato'!B2260)</f>
-        <v>-0.18176300000000001</v>
-      </c>
-      <c r="B226" s="1">
-        <f>MAX(dato!C2251:'dato'!C2260)</f>
-        <v>0.88586399999999998</v>
-      </c>
-      <c r="C226" s="1">
-        <f>MAX(dato!D2251:'dato'!D2260)</f>
-        <v>-1.25769</v>
-      </c>
-      <c r="D226" s="1">
-        <f>MAX(dato!E2251:'dato'!E2260)</f>
-        <v>56.457520000000002</v>
-      </c>
-      <c r="E226" s="1">
-        <f>MAX(dato!F2251:'dato'!F2260)</f>
-        <v>102.66113300000001</v>
-      </c>
-      <c r="F226" s="1">
-        <f>MAX(dato!G2251:'dato'!G2260)</f>
-        <v>-25.817871</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <f>MAX(dato!B2261:'dato'!B2270)</f>
-        <v>-3.9688720000000002</v>
-      </c>
-      <c r="B227" s="1">
-        <f>MAX(dato!C2261:'dato'!C2270)</f>
-        <v>-2.0152589999999999</v>
-      </c>
-      <c r="C227" s="1">
-        <f>MAX(dato!D2261:'dato'!D2270)</f>
-        <v>3.9995120000000002</v>
-      </c>
-      <c r="D227" s="1">
-        <f>MAX(dato!E2261:'dato'!E2270)</f>
-        <v>278.320312</v>
-      </c>
-      <c r="E227" s="1">
-        <f>MAX(dato!F2261:'dato'!F2270)</f>
-        <v>-981.07910200000003</v>
-      </c>
-      <c r="F227" s="1">
-        <f>MAX(dato!G2261:'dato'!G2270)</f>
-        <v>-491.08886699999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
